--- a/gene list/2018_gene_list(去重).xlsx
+++ b/gene list/2018_gene_list(去重).xlsx
@@ -3625,10 +3625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2548"/>
+  <dimension ref="A1:A1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AD1048576"/>
+      <selection activeCell="A1092" sqref="A1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9102,4368 +9102,6 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1095"/>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1096"/>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1097"/>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1098"/>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1099"/>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1100"/>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1101"/>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1102"/>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1103"/>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1104"/>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1105"/>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1106"/>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1107"/>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1108"/>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1109"/>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1110"/>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1111"/>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1112"/>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1113"/>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1114"/>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1115"/>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1116"/>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1117"/>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1118"/>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1119"/>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1120"/>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1121"/>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1122"/>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1123"/>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1124"/>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1125"/>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1126"/>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1127"/>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1128"/>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1129"/>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1130"/>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1131"/>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1132"/>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1133"/>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1134"/>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1135"/>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1136"/>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1137"/>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1138"/>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1139"/>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1140"/>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1141"/>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1142"/>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1143"/>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1144"/>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1145"/>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1146"/>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1147"/>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1148"/>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1149"/>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1150"/>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1151"/>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1152"/>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1153"/>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1154"/>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1155"/>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1156"/>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1157"/>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1158"/>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1159"/>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1160"/>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1161"/>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1162"/>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1163"/>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1164"/>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1165"/>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1166"/>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1167"/>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1168"/>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1169"/>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1170"/>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1171"/>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1172"/>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1173"/>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1174"/>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1175"/>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1176"/>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1177"/>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1178"/>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1179"/>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1180"/>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1181"/>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1182"/>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1183"/>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1184"/>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1185"/>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1186"/>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1187"/>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1188"/>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1189"/>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1190"/>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1191"/>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1192"/>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1193"/>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1194"/>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1195"/>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1196"/>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1197"/>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1198"/>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1199"/>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1200"/>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1201"/>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1202"/>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1203"/>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1204"/>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1205"/>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1206"/>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1207"/>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1208"/>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1209"/>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1210"/>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1211"/>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1212"/>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1213"/>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1214"/>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1215"/>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1216"/>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1217"/>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1218"/>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1219"/>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1220"/>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1221"/>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1222"/>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1223"/>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1224"/>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1225"/>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1226"/>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1227"/>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1228"/>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1229"/>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1230"/>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1231"/>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1232"/>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1233"/>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1234"/>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1235"/>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1236"/>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1237"/>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1238"/>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1239"/>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1240"/>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1241"/>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1242"/>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1243"/>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1244"/>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1245"/>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1246"/>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1247"/>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1248"/>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1249"/>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1250"/>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1251"/>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1252"/>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1253"/>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1254"/>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1255"/>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1256"/>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1257"/>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1258"/>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1259"/>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1260"/>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1261"/>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1262"/>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1263"/>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1264"/>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1265"/>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1266"/>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1267"/>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1268"/>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1269"/>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1270"/>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1271"/>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1272"/>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1273"/>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1274"/>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1275"/>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1276"/>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1277"/>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1278"/>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1279"/>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1280"/>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1281"/>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1282"/>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1283"/>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1284"/>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1285"/>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1286"/>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1287"/>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1288"/>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1289"/>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1290"/>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1291"/>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1292"/>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1293"/>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1294"/>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1295"/>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1296"/>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1297"/>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1298"/>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1299"/>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1300"/>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1301"/>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1302"/>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1303"/>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1304"/>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1305"/>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1306"/>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1307"/>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1308"/>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1309"/>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1310"/>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1311"/>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1312"/>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1313"/>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1314"/>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1315"/>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1316"/>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1317"/>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1318"/>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1319"/>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1320"/>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1321"/>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1322"/>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1323"/>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1324"/>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1325"/>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1326"/>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1327"/>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1328"/>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1329"/>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1330"/>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1331"/>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1332"/>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1333"/>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1334"/>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1335"/>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1336"/>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1337"/>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1338"/>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1339"/>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1340"/>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1341"/>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1342"/>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1343"/>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1344"/>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1345"/>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1346"/>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1347"/>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1348"/>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1349"/>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1350"/>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1351"/>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1352"/>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1353"/>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1354"/>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1355"/>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1356"/>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1357"/>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1358"/>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1359"/>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1360"/>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1361"/>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1362"/>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1363"/>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1364"/>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1365"/>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1366"/>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1367"/>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1368"/>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1369"/>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1370"/>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1371"/>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1372"/>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1373"/>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1374"/>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1375"/>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1376"/>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1377"/>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1378"/>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1379"/>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1380"/>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1381"/>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1382"/>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1383"/>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1384"/>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1385"/>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1386"/>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1387"/>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1388"/>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1389"/>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1390"/>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1391"/>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1392"/>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1393"/>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1394"/>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1395"/>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1396"/>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1397"/>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1398"/>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1399"/>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1400"/>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1401"/>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1402"/>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1403"/>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1404"/>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1405"/>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1406"/>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1407"/>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1408"/>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1409"/>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1410"/>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1411"/>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1412"/>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1413"/>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1414"/>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1415"/>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1416"/>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1417"/>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1418"/>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1419"/>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1420"/>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1421"/>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1422"/>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1423"/>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1424"/>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1425"/>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1426"/>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1427"/>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1428"/>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1429"/>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1430"/>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1431"/>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1432"/>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1433"/>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1434"/>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1435"/>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1436"/>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1437"/>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1438"/>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1439"/>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1440"/>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1441"/>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1442"/>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1443"/>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1444"/>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1445"/>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1446"/>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1447"/>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1448"/>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1449"/>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1450"/>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1451"/>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1452"/>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1453"/>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1454"/>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1455"/>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1456"/>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1457"/>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1458"/>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1459"/>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1460"/>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1461"/>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1462"/>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1463"/>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1464"/>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1465"/>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1466"/>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1467"/>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1468"/>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1469"/>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1470"/>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1471"/>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1472"/>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1473"/>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1474"/>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1475"/>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1476"/>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1477"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1478"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1479"/>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1480"/>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1481"/>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1482"/>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1483"/>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1484"/>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1485"/>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1486"/>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1487"/>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1488"/>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1489"/>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1490"/>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1491"/>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1492"/>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1493"/>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1494"/>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1495"/>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1496"/>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1497"/>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1498"/>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1499"/>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1500"/>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1501"/>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1502"/>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1503"/>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1504"/>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1505"/>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1506"/>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1507"/>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1508"/>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1509"/>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1510"/>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1511"/>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1512"/>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1513"/>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1514"/>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1515"/>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1516"/>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1517"/>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1518"/>
-    </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1519"/>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1520"/>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1521"/>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1522"/>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1523"/>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1524"/>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1525"/>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1526"/>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1527"/>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1528"/>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1529"/>
-    </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1530"/>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1531"/>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1532"/>
-    </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1533"/>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1534"/>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1535"/>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1536"/>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1537"/>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1538"/>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1539"/>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1540"/>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1541"/>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1542"/>
-    </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1543"/>
-    </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1544"/>
-    </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1545"/>
-    </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1546"/>
-    </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1547"/>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1548"/>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1549"/>
-    </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1550"/>
-    </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1551"/>
-    </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1552"/>
-    </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1553"/>
-    </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1554"/>
-    </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1555"/>
-    </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1556"/>
-    </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1557"/>
-    </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1558"/>
-    </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1559"/>
-    </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1560"/>
-    </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1561"/>
-    </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1562"/>
-    </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1563"/>
-    </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1564"/>
-    </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1565"/>
-    </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1566"/>
-    </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1567"/>
-    </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1568"/>
-    </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1569"/>
-    </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1570"/>
-    </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1571"/>
-    </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1572"/>
-    </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1573"/>
-    </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1574"/>
-    </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1575"/>
-    </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1576"/>
-    </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1577"/>
-    </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1578"/>
-    </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1579"/>
-    </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1580"/>
-    </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1581"/>
-    </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1582"/>
-    </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1583"/>
-    </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1584"/>
-    </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1585"/>
-    </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1586"/>
-    </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1587"/>
-    </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1588"/>
-    </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1589"/>
-    </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1590"/>
-    </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1591"/>
-    </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1592"/>
-    </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1593"/>
-    </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1594"/>
-    </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1595"/>
-    </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1596"/>
-    </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1597"/>
-    </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1598"/>
-    </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1599"/>
-    </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1600"/>
-    </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1601"/>
-    </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1602"/>
-    </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1603"/>
-    </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1604"/>
-    </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1605"/>
-    </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1606"/>
-    </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1607"/>
-    </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1608"/>
-    </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1609"/>
-    </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1610"/>
-    </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1611"/>
-    </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1612"/>
-    </row>
-    <row r="1613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1613"/>
-    </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1614"/>
-    </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1615"/>
-    </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1616"/>
-    </row>
-    <row r="1617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1617"/>
-    </row>
-    <row r="1618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1618"/>
-    </row>
-    <row r="1619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1619"/>
-    </row>
-    <row r="1620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1620"/>
-    </row>
-    <row r="1621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1621"/>
-    </row>
-    <row r="1622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1622"/>
-    </row>
-    <row r="1623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1623"/>
-    </row>
-    <row r="1624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1624"/>
-    </row>
-    <row r="1625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1625"/>
-    </row>
-    <row r="1626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1626"/>
-    </row>
-    <row r="1627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1627"/>
-    </row>
-    <row r="1628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1628"/>
-    </row>
-    <row r="1629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1629"/>
-    </row>
-    <row r="1630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1630"/>
-    </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1631"/>
-    </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1632"/>
-    </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1633"/>
-    </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1634"/>
-    </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1635"/>
-    </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1636"/>
-    </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1637"/>
-    </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1638"/>
-    </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1639"/>
-    </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1640"/>
-    </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1641"/>
-    </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1642"/>
-    </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1643"/>
-    </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1644"/>
-    </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1645"/>
-    </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1646"/>
-    </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1647"/>
-    </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1648"/>
-    </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1649"/>
-    </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1650"/>
-    </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1651"/>
-    </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1652"/>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1653"/>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1654"/>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1655"/>
-    </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1656"/>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1657"/>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1658"/>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1659"/>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1660"/>
-    </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1661"/>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1662"/>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1663"/>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1664"/>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1665"/>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1666"/>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1667"/>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1668"/>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1669"/>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1670"/>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1671"/>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1672"/>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1673"/>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1674"/>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1675"/>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1676"/>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1677"/>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1678"/>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1679"/>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1680"/>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1681"/>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1682"/>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1683"/>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1684"/>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1685"/>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1686"/>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1687"/>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1688"/>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1689"/>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1690"/>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1691"/>
-    </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1692"/>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1693"/>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1694"/>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1695"/>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1696"/>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1697"/>
-    </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1698"/>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1699"/>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1700"/>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1701"/>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1702"/>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1703"/>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1704"/>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1705"/>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1706"/>
-    </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1707"/>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1708"/>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1709"/>
-    </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1710"/>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1711"/>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1712"/>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1713"/>
-    </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1714"/>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1715"/>
-    </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1716"/>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1717"/>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1718"/>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1719"/>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1720"/>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1721"/>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1722"/>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1723"/>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1724"/>
-    </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1725"/>
-    </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1726"/>
-    </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1727"/>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1728"/>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1729"/>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1730"/>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1731"/>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1732"/>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1733"/>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1734"/>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1735"/>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1736"/>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1737"/>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1738"/>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1739"/>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1740"/>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1741"/>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1742"/>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1743"/>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1744"/>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1745"/>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1746"/>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1747"/>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1748"/>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1749"/>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1750"/>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1751"/>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1752"/>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1753"/>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1754"/>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1755"/>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1756"/>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1757"/>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1758"/>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1759"/>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1760"/>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1761"/>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1762"/>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1763"/>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1764"/>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1765"/>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1766"/>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1767"/>
-    </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1768"/>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1769"/>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1770"/>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1771"/>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1772"/>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1773"/>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1774"/>
-    </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1775"/>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1776"/>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1777"/>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1778"/>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1779"/>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1780"/>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1781"/>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1782"/>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1783"/>
-    </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1784"/>
-    </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1785"/>
-    </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1786"/>
-    </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1787"/>
-    </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1788"/>
-    </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1789"/>
-    </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1790"/>
-    </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1791"/>
-    </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1792"/>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1793"/>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1794"/>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1795"/>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1796"/>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1797"/>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1798"/>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1799"/>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1800"/>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1801"/>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1802"/>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1803"/>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1804"/>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1805"/>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1806"/>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1807"/>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1808"/>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1809"/>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1810"/>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1811"/>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1812"/>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1813"/>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1814"/>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1815"/>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1816"/>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1817"/>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1818"/>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1819"/>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1820"/>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1821"/>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1822"/>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1823"/>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1824"/>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1825"/>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1826"/>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1827"/>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1828"/>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1829"/>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1830"/>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1831"/>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1832"/>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1833"/>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1834"/>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1835"/>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1836"/>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1837"/>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1838"/>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1839"/>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1840"/>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1841"/>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1842"/>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1843"/>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1844"/>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1845"/>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1846"/>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1847"/>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1848"/>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1849"/>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1850"/>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1851"/>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1852"/>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1853"/>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1854"/>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1855"/>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1856"/>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1857"/>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1858"/>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1859"/>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1860"/>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1861"/>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1862"/>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1863"/>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1864"/>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1865"/>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1866"/>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1867"/>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1868"/>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1869"/>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1870"/>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1871"/>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1872"/>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1873"/>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1874"/>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1875"/>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1876"/>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1877"/>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1878"/>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1879"/>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1880"/>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1881"/>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1882"/>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1883"/>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1884"/>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1885"/>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1886"/>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1887"/>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1888"/>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1889"/>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1890"/>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1891"/>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1892"/>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1893"/>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1894"/>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1895"/>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1896"/>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1897"/>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1898"/>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1899"/>
-    </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1900"/>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1901"/>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1902"/>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1903"/>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1904"/>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1905"/>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1906"/>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1907"/>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1908"/>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1909"/>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1910"/>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1911"/>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1912"/>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1913"/>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1914"/>
-    </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1915"/>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1916"/>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1917"/>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1918"/>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1919"/>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1920"/>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1921"/>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1922"/>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1923"/>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1924"/>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1925"/>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1926"/>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1927"/>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1928"/>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1929"/>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1930"/>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1931"/>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1932"/>
-    </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1933"/>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1934"/>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1935"/>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1936"/>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1937"/>
-    </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1938"/>
-    </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1939"/>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1940"/>
-    </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1941"/>
-    </row>
-    <row r="1942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1942"/>
-    </row>
-    <row r="1943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1943"/>
-    </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1944"/>
-    </row>
-    <row r="1945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1945"/>
-    </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1946"/>
-    </row>
-    <row r="1947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1947"/>
-    </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1948"/>
-    </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1949"/>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1950"/>
-    </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1951"/>
-    </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1952"/>
-    </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1953"/>
-    </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1954"/>
-    </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1955"/>
-    </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1956"/>
-    </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1957"/>
-    </row>
-    <row r="1958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1958"/>
-    </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1959"/>
-    </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1960"/>
-    </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1961"/>
-    </row>
-    <row r="1962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1962"/>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1963"/>
-    </row>
-    <row r="1964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1964"/>
-    </row>
-    <row r="1965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1965"/>
-    </row>
-    <row r="1966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1966"/>
-    </row>
-    <row r="1967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1967"/>
-    </row>
-    <row r="1968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1968"/>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1969"/>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1970"/>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1971"/>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1972"/>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1973"/>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1974"/>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1975"/>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1976"/>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1977"/>
-    </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1978"/>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1979"/>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1980"/>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1981"/>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1982"/>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1983"/>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1984"/>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1985"/>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1986"/>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1987"/>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1988"/>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1989"/>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1990"/>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1991"/>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1992"/>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1993"/>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1994"/>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1995"/>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1996"/>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1997"/>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1998"/>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1999"/>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2000"/>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2001"/>
-    </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2002"/>
-    </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2003"/>
-    </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2004"/>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2005"/>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2006"/>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2007"/>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2008"/>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2009"/>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2010"/>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2011"/>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2012"/>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2013"/>
-    </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2014"/>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2015"/>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2016"/>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2017"/>
-    </row>
-    <row r="2018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2018"/>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2019"/>
-    </row>
-    <row r="2020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2020"/>
-    </row>
-    <row r="2021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2021"/>
-    </row>
-    <row r="2022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2022"/>
-    </row>
-    <row r="2023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2023"/>
-    </row>
-    <row r="2024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2024"/>
-    </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2025"/>
-    </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2026"/>
-    </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2027"/>
-    </row>
-    <row r="2028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2028"/>
-    </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2029"/>
-    </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2030"/>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2031"/>
-    </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2032"/>
-    </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2033"/>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2034"/>
-    </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2035"/>
-    </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2036"/>
-    </row>
-    <row r="2037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2037"/>
-    </row>
-    <row r="2038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2038"/>
-    </row>
-    <row r="2039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2039"/>
-    </row>
-    <row r="2040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2040"/>
-    </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2041"/>
-    </row>
-    <row r="2042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2042"/>
-    </row>
-    <row r="2043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2043"/>
-    </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2044"/>
-    </row>
-    <row r="2045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2045"/>
-    </row>
-    <row r="2046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2046"/>
-    </row>
-    <row r="2047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2047"/>
-    </row>
-    <row r="2048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2048"/>
-    </row>
-    <row r="2049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2049"/>
-    </row>
-    <row r="2050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2050"/>
-    </row>
-    <row r="2051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2051"/>
-    </row>
-    <row r="2052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2052"/>
-    </row>
-    <row r="2053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2053"/>
-    </row>
-    <row r="2054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2054"/>
-    </row>
-    <row r="2055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2055"/>
-    </row>
-    <row r="2056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2056"/>
-    </row>
-    <row r="2057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2057"/>
-    </row>
-    <row r="2058" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2058"/>
-    </row>
-    <row r="2059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2059"/>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2060"/>
-    </row>
-    <row r="2061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2061"/>
-    </row>
-    <row r="2062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2062"/>
-    </row>
-    <row r="2063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2063"/>
-    </row>
-    <row r="2064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2064"/>
-    </row>
-    <row r="2065" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2065"/>
-    </row>
-    <row r="2066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2066"/>
-    </row>
-    <row r="2067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2067"/>
-    </row>
-    <row r="2068" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2068"/>
-    </row>
-    <row r="2069" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2069"/>
-    </row>
-    <row r="2070" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2070"/>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2071"/>
-    </row>
-    <row r="2072" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2072"/>
-    </row>
-    <row r="2073" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2073"/>
-    </row>
-    <row r="2074" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2074"/>
-    </row>
-    <row r="2075" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2075"/>
-    </row>
-    <row r="2076" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2076"/>
-    </row>
-    <row r="2077" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2077"/>
-    </row>
-    <row r="2078" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2078"/>
-    </row>
-    <row r="2079" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2079"/>
-    </row>
-    <row r="2080" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2080"/>
-    </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2081"/>
-    </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2082"/>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2083"/>
-    </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2084"/>
-    </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2085"/>
-    </row>
-    <row r="2086" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2086"/>
-    </row>
-    <row r="2087" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2087"/>
-    </row>
-    <row r="2088" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2088"/>
-    </row>
-    <row r="2089" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2089"/>
-    </row>
-    <row r="2090" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2090"/>
-    </row>
-    <row r="2091" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2091"/>
-    </row>
-    <row r="2092" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2092"/>
-    </row>
-    <row r="2093" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2093"/>
-    </row>
-    <row r="2094" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2094"/>
-    </row>
-    <row r="2095" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2095"/>
-    </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2096"/>
-    </row>
-    <row r="2097" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2097"/>
-    </row>
-    <row r="2098" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2098"/>
-    </row>
-    <row r="2099" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2099"/>
-    </row>
-    <row r="2100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2100"/>
-    </row>
-    <row r="2101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2101"/>
-    </row>
-    <row r="2102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2102"/>
-    </row>
-    <row r="2103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2103"/>
-    </row>
-    <row r="2104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2104"/>
-    </row>
-    <row r="2105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2105"/>
-    </row>
-    <row r="2106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2106"/>
-    </row>
-    <row r="2107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2107"/>
-    </row>
-    <row r="2108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2108"/>
-    </row>
-    <row r="2109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2109"/>
-    </row>
-    <row r="2110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2110"/>
-    </row>
-    <row r="2111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2111"/>
-    </row>
-    <row r="2112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2112"/>
-    </row>
-    <row r="2113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2113"/>
-    </row>
-    <row r="2114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2114"/>
-    </row>
-    <row r="2115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2115"/>
-    </row>
-    <row r="2116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2116"/>
-    </row>
-    <row r="2117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2117"/>
-    </row>
-    <row r="2118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2118"/>
-    </row>
-    <row r="2119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2119"/>
-    </row>
-    <row r="2120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2120"/>
-    </row>
-    <row r="2121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2121"/>
-    </row>
-    <row r="2122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2122"/>
-    </row>
-    <row r="2123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2123"/>
-    </row>
-    <row r="2124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2124"/>
-    </row>
-    <row r="2125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2125"/>
-    </row>
-    <row r="2126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2126"/>
-    </row>
-    <row r="2127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2127"/>
-    </row>
-    <row r="2128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2128"/>
-    </row>
-    <row r="2129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2129"/>
-    </row>
-    <row r="2130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2130"/>
-    </row>
-    <row r="2131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2131"/>
-    </row>
-    <row r="2132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2132"/>
-    </row>
-    <row r="2133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2133"/>
-    </row>
-    <row r="2134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2134"/>
-    </row>
-    <row r="2135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2135"/>
-    </row>
-    <row r="2136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2136"/>
-    </row>
-    <row r="2137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2137"/>
-    </row>
-    <row r="2138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2138"/>
-    </row>
-    <row r="2139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2139"/>
-    </row>
-    <row r="2140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2140"/>
-    </row>
-    <row r="2141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2141"/>
-    </row>
-    <row r="2142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2142"/>
-    </row>
-    <row r="2143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2143"/>
-    </row>
-    <row r="2144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2144"/>
-    </row>
-    <row r="2145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2145"/>
-    </row>
-    <row r="2146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2146"/>
-    </row>
-    <row r="2147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2147"/>
-    </row>
-    <row r="2148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2148"/>
-    </row>
-    <row r="2149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2149"/>
-    </row>
-    <row r="2150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2150"/>
-    </row>
-    <row r="2151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2151"/>
-    </row>
-    <row r="2152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2152"/>
-    </row>
-    <row r="2153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2153"/>
-    </row>
-    <row r="2154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2154"/>
-    </row>
-    <row r="2155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2155"/>
-    </row>
-    <row r="2156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2156"/>
-    </row>
-    <row r="2157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2157"/>
-    </row>
-    <row r="2158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2158"/>
-    </row>
-    <row r="2159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2159"/>
-    </row>
-    <row r="2160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2160"/>
-    </row>
-    <row r="2161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2161"/>
-    </row>
-    <row r="2162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2162"/>
-    </row>
-    <row r="2163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2163"/>
-    </row>
-    <row r="2164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2164"/>
-    </row>
-    <row r="2165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2165"/>
-    </row>
-    <row r="2166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2166"/>
-    </row>
-    <row r="2167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2167"/>
-    </row>
-    <row r="2168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2168"/>
-    </row>
-    <row r="2169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2169"/>
-    </row>
-    <row r="2170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2170"/>
-    </row>
-    <row r="2171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2171"/>
-    </row>
-    <row r="2172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2172"/>
-    </row>
-    <row r="2173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2173"/>
-    </row>
-    <row r="2174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2174"/>
-    </row>
-    <row r="2175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2175"/>
-    </row>
-    <row r="2176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2176"/>
-    </row>
-    <row r="2177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2177"/>
-    </row>
-    <row r="2178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2178"/>
-    </row>
-    <row r="2179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2179"/>
-    </row>
-    <row r="2180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2180"/>
-    </row>
-    <row r="2181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2181"/>
-    </row>
-    <row r="2182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2182"/>
-    </row>
-    <row r="2183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2183"/>
-    </row>
-    <row r="2184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2184"/>
-    </row>
-    <row r="2185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2185"/>
-    </row>
-    <row r="2186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2186"/>
-    </row>
-    <row r="2187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2187"/>
-    </row>
-    <row r="2188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2188"/>
-    </row>
-    <row r="2189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2189"/>
-    </row>
-    <row r="2190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2190"/>
-    </row>
-    <row r="2191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2191"/>
-    </row>
-    <row r="2192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2192"/>
-    </row>
-    <row r="2193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2193"/>
-    </row>
-    <row r="2194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2194"/>
-    </row>
-    <row r="2195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2195"/>
-    </row>
-    <row r="2196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2196"/>
-    </row>
-    <row r="2197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2197"/>
-    </row>
-    <row r="2198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2198"/>
-    </row>
-    <row r="2199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2199"/>
-    </row>
-    <row r="2200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2200"/>
-    </row>
-    <row r="2201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2201"/>
-    </row>
-    <row r="2202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2202"/>
-    </row>
-    <row r="2203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2203"/>
-    </row>
-    <row r="2204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2204"/>
-    </row>
-    <row r="2205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2205"/>
-    </row>
-    <row r="2206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2206"/>
-    </row>
-    <row r="2207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2207"/>
-    </row>
-    <row r="2208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2208"/>
-    </row>
-    <row r="2209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2209"/>
-    </row>
-    <row r="2210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2210"/>
-    </row>
-    <row r="2211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2211"/>
-    </row>
-    <row r="2212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2212"/>
-    </row>
-    <row r="2213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2213"/>
-    </row>
-    <row r="2214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2214"/>
-    </row>
-    <row r="2215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2215"/>
-    </row>
-    <row r="2216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2216"/>
-    </row>
-    <row r="2217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2217"/>
-    </row>
-    <row r="2218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2218"/>
-    </row>
-    <row r="2219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2219"/>
-    </row>
-    <row r="2220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2220"/>
-    </row>
-    <row r="2221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2221"/>
-    </row>
-    <row r="2222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2222"/>
-    </row>
-    <row r="2223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2223"/>
-    </row>
-    <row r="2224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2224"/>
-    </row>
-    <row r="2225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2225"/>
-    </row>
-    <row r="2226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2226"/>
-    </row>
-    <row r="2227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2227"/>
-    </row>
-    <row r="2228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2228"/>
-    </row>
-    <row r="2229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2229"/>
-    </row>
-    <row r="2230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2230"/>
-    </row>
-    <row r="2231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2231"/>
-    </row>
-    <row r="2232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2232"/>
-    </row>
-    <row r="2233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2233"/>
-    </row>
-    <row r="2234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2234"/>
-    </row>
-    <row r="2235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2235"/>
-    </row>
-    <row r="2236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2236"/>
-    </row>
-    <row r="2237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2237"/>
-    </row>
-    <row r="2238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2238"/>
-    </row>
-    <row r="2239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2239"/>
-    </row>
-    <row r="2240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2240"/>
-    </row>
-    <row r="2241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2241"/>
-    </row>
-    <row r="2242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2242"/>
-    </row>
-    <row r="2243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2243"/>
-    </row>
-    <row r="2244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2244"/>
-    </row>
-    <row r="2245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2245"/>
-    </row>
-    <row r="2246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2246"/>
-    </row>
-    <row r="2247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2247"/>
-    </row>
-    <row r="2248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2248"/>
-    </row>
-    <row r="2249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2249"/>
-    </row>
-    <row r="2250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2250"/>
-    </row>
-    <row r="2251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2251"/>
-    </row>
-    <row r="2252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2252"/>
-    </row>
-    <row r="2253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2253"/>
-    </row>
-    <row r="2254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2254"/>
-    </row>
-    <row r="2255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2255"/>
-    </row>
-    <row r="2256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2256"/>
-    </row>
-    <row r="2257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2257"/>
-    </row>
-    <row r="2258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2258"/>
-    </row>
-    <row r="2259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2259"/>
-    </row>
-    <row r="2260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2260"/>
-    </row>
-    <row r="2261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2261"/>
-    </row>
-    <row r="2262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2262"/>
-    </row>
-    <row r="2263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2263"/>
-    </row>
-    <row r="2264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2264"/>
-    </row>
-    <row r="2265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2265"/>
-    </row>
-    <row r="2266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2266"/>
-    </row>
-    <row r="2267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2267"/>
-    </row>
-    <row r="2268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2268"/>
-    </row>
-    <row r="2269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2269"/>
-    </row>
-    <row r="2270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2270"/>
-    </row>
-    <row r="2271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2271"/>
-    </row>
-    <row r="2272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2272"/>
-    </row>
-    <row r="2273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2273"/>
-    </row>
-    <row r="2274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2274"/>
-    </row>
-    <row r="2275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2275"/>
-    </row>
-    <row r="2276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2276"/>
-    </row>
-    <row r="2277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2277"/>
-    </row>
-    <row r="2278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2278"/>
-    </row>
-    <row r="2279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2279"/>
-    </row>
-    <row r="2280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2280"/>
-    </row>
-    <row r="2281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2281"/>
-    </row>
-    <row r="2282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2282"/>
-    </row>
-    <row r="2283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2283"/>
-    </row>
-    <row r="2284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2284"/>
-    </row>
-    <row r="2285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2285"/>
-    </row>
-    <row r="2286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2286"/>
-    </row>
-    <row r="2287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2287"/>
-    </row>
-    <row r="2288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2288"/>
-    </row>
-    <row r="2289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2289"/>
-    </row>
-    <row r="2290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2290"/>
-    </row>
-    <row r="2291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2291"/>
-    </row>
-    <row r="2292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2292"/>
-    </row>
-    <row r="2293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2293"/>
-    </row>
-    <row r="2294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2294"/>
-    </row>
-    <row r="2295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2295"/>
-    </row>
-    <row r="2296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2296"/>
-    </row>
-    <row r="2297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2297"/>
-    </row>
-    <row r="2298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2298"/>
-    </row>
-    <row r="2299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2299"/>
-    </row>
-    <row r="2300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2300"/>
-    </row>
-    <row r="2301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2301"/>
-    </row>
-    <row r="2302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2302"/>
-    </row>
-    <row r="2303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2303"/>
-    </row>
-    <row r="2304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2304"/>
-    </row>
-    <row r="2305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2305"/>
-    </row>
-    <row r="2306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2306"/>
-    </row>
-    <row r="2307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2307"/>
-    </row>
-    <row r="2308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2308"/>
-    </row>
-    <row r="2309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2309"/>
-    </row>
-    <row r="2310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2310"/>
-    </row>
-    <row r="2311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2311"/>
-    </row>
-    <row r="2312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2312"/>
-    </row>
-    <row r="2313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2313"/>
-    </row>
-    <row r="2314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2314"/>
-    </row>
-    <row r="2315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2315"/>
-    </row>
-    <row r="2316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2316"/>
-    </row>
-    <row r="2317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2317"/>
-    </row>
-    <row r="2318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2318"/>
-    </row>
-    <row r="2319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2319"/>
-    </row>
-    <row r="2320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2320"/>
-    </row>
-    <row r="2321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2321"/>
-    </row>
-    <row r="2322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2322"/>
-    </row>
-    <row r="2323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2323"/>
-    </row>
-    <row r="2324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2324"/>
-    </row>
-    <row r="2325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2325"/>
-    </row>
-    <row r="2326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2326"/>
-    </row>
-    <row r="2327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2327"/>
-    </row>
-    <row r="2328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2328"/>
-    </row>
-    <row r="2329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2329"/>
-    </row>
-    <row r="2330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2330"/>
-    </row>
-    <row r="2331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2331"/>
-    </row>
-    <row r="2332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2332"/>
-    </row>
-    <row r="2333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2333"/>
-    </row>
-    <row r="2334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2334"/>
-    </row>
-    <row r="2335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2335"/>
-    </row>
-    <row r="2336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2336"/>
-    </row>
-    <row r="2337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2337"/>
-    </row>
-    <row r="2338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2338"/>
-    </row>
-    <row r="2339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2339"/>
-    </row>
-    <row r="2340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2340"/>
-    </row>
-    <row r="2341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2341"/>
-    </row>
-    <row r="2342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2342"/>
-    </row>
-    <row r="2343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2343"/>
-    </row>
-    <row r="2344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2344"/>
-    </row>
-    <row r="2345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2345"/>
-    </row>
-    <row r="2346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2346"/>
-    </row>
-    <row r="2347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2347"/>
-    </row>
-    <row r="2348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2348"/>
-    </row>
-    <row r="2349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2349"/>
-    </row>
-    <row r="2350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2350"/>
-    </row>
-    <row r="2351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2351"/>
-    </row>
-    <row r="2352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2352"/>
-    </row>
-    <row r="2353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2353"/>
-    </row>
-    <row r="2354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2354"/>
-    </row>
-    <row r="2355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2355"/>
-    </row>
-    <row r="2356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2356"/>
-    </row>
-    <row r="2357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2357"/>
-    </row>
-    <row r="2358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2358"/>
-    </row>
-    <row r="2359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2359"/>
-    </row>
-    <row r="2360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2360"/>
-    </row>
-    <row r="2361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2361"/>
-    </row>
-    <row r="2362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2362"/>
-    </row>
-    <row r="2363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2363"/>
-    </row>
-    <row r="2364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2364"/>
-    </row>
-    <row r="2365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2365"/>
-    </row>
-    <row r="2366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2366"/>
-    </row>
-    <row r="2367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2367"/>
-    </row>
-    <row r="2368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2368"/>
-    </row>
-    <row r="2369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2369"/>
-    </row>
-    <row r="2370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2370"/>
-    </row>
-    <row r="2371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2371"/>
-    </row>
-    <row r="2372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2372"/>
-    </row>
-    <row r="2373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2373"/>
-    </row>
-    <row r="2374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2374"/>
-    </row>
-    <row r="2375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2375"/>
-    </row>
-    <row r="2376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2376"/>
-    </row>
-    <row r="2377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2377"/>
-    </row>
-    <row r="2378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2378"/>
-    </row>
-    <row r="2379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2379"/>
-    </row>
-    <row r="2380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2380"/>
-    </row>
-    <row r="2381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2381"/>
-    </row>
-    <row r="2382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2382"/>
-    </row>
-    <row r="2383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2383"/>
-    </row>
-    <row r="2384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2384"/>
-    </row>
-    <row r="2385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2385"/>
-    </row>
-    <row r="2386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2386"/>
-    </row>
-    <row r="2387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2387"/>
-    </row>
-    <row r="2388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2388"/>
-    </row>
-    <row r="2389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2389"/>
-    </row>
-    <row r="2390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2390"/>
-    </row>
-    <row r="2391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2391"/>
-    </row>
-    <row r="2392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2392"/>
-    </row>
-    <row r="2393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2393"/>
-    </row>
-    <row r="2394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2394"/>
-    </row>
-    <row r="2395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2395"/>
-    </row>
-    <row r="2396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2396"/>
-    </row>
-    <row r="2397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2397"/>
-    </row>
-    <row r="2398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2398"/>
-    </row>
-    <row r="2399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2399"/>
-    </row>
-    <row r="2400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2400"/>
-    </row>
-    <row r="2401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2401"/>
-    </row>
-    <row r="2402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2402"/>
-    </row>
-    <row r="2403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2403"/>
-    </row>
-    <row r="2404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2404"/>
-    </row>
-    <row r="2405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2405"/>
-    </row>
-    <row r="2406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2406"/>
-    </row>
-    <row r="2407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2407"/>
-    </row>
-    <row r="2408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2408"/>
-    </row>
-    <row r="2409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2409"/>
-    </row>
-    <row r="2410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2410"/>
-    </row>
-    <row r="2411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2411"/>
-    </row>
-    <row r="2412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2412"/>
-    </row>
-    <row r="2413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2413"/>
-    </row>
-    <row r="2414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2414"/>
-    </row>
-    <row r="2415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2415"/>
-    </row>
-    <row r="2416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2416"/>
-    </row>
-    <row r="2417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2417"/>
-    </row>
-    <row r="2418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2418"/>
-    </row>
-    <row r="2419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2419"/>
-    </row>
-    <row r="2420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2420"/>
-    </row>
-    <row r="2421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2421"/>
-    </row>
-    <row r="2422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2422"/>
-    </row>
-    <row r="2423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2423"/>
-    </row>
-    <row r="2424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2424"/>
-    </row>
-    <row r="2425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2425"/>
-    </row>
-    <row r="2426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2426"/>
-    </row>
-    <row r="2427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2427"/>
-    </row>
-    <row r="2428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2428"/>
-    </row>
-    <row r="2429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2429"/>
-    </row>
-    <row r="2430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2430"/>
-    </row>
-    <row r="2431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2431"/>
-    </row>
-    <row r="2432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2432"/>
-    </row>
-    <row r="2433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2433"/>
-    </row>
-    <row r="2434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2434"/>
-    </row>
-    <row r="2435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2435"/>
-    </row>
-    <row r="2436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2436"/>
-    </row>
-    <row r="2437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2437"/>
-    </row>
-    <row r="2438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2438"/>
-    </row>
-    <row r="2439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2439"/>
-    </row>
-    <row r="2440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2440"/>
-    </row>
-    <row r="2441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2441"/>
-    </row>
-    <row r="2442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2442"/>
-    </row>
-    <row r="2443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2443"/>
-    </row>
-    <row r="2444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2444"/>
-    </row>
-    <row r="2445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2445"/>
-    </row>
-    <row r="2446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2446"/>
-    </row>
-    <row r="2447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2447"/>
-    </row>
-    <row r="2448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2448"/>
-    </row>
-    <row r="2449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2449"/>
-    </row>
-    <row r="2450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2450"/>
-    </row>
-    <row r="2451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2451"/>
-    </row>
-    <row r="2452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2452"/>
-    </row>
-    <row r="2453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2453"/>
-    </row>
-    <row r="2454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2454"/>
-    </row>
-    <row r="2455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2455"/>
-    </row>
-    <row r="2456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2456"/>
-    </row>
-    <row r="2457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2457"/>
-    </row>
-    <row r="2458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2458"/>
-    </row>
-    <row r="2459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2459"/>
-    </row>
-    <row r="2460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2460"/>
-    </row>
-    <row r="2461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2461"/>
-    </row>
-    <row r="2462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2462"/>
-    </row>
-    <row r="2463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2463"/>
-    </row>
-    <row r="2464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2464"/>
-    </row>
-    <row r="2465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2465"/>
-    </row>
-    <row r="2466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2466"/>
-    </row>
-    <row r="2467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2467"/>
-    </row>
-    <row r="2468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2468"/>
-    </row>
-    <row r="2469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2469"/>
-    </row>
-    <row r="2470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2470"/>
-    </row>
-    <row r="2471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2471"/>
-    </row>
-    <row r="2472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2472"/>
-    </row>
-    <row r="2473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2473"/>
-    </row>
-    <row r="2474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2474"/>
-    </row>
-    <row r="2475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2475"/>
-    </row>
-    <row r="2476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2476"/>
-    </row>
-    <row r="2477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2477"/>
-    </row>
-    <row r="2478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2478"/>
-    </row>
-    <row r="2479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2479"/>
-    </row>
-    <row r="2480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2480"/>
-    </row>
-    <row r="2481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2481"/>
-    </row>
-    <row r="2482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2482"/>
-    </row>
-    <row r="2483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2483"/>
-    </row>
-    <row r="2484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2484"/>
-    </row>
-    <row r="2485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2485"/>
-    </row>
-    <row r="2486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2486"/>
-    </row>
-    <row r="2487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2487"/>
-    </row>
-    <row r="2488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2488"/>
-    </row>
-    <row r="2489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2489"/>
-    </row>
-    <row r="2490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2490"/>
-    </row>
-    <row r="2491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2491"/>
-    </row>
-    <row r="2492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2492"/>
-    </row>
-    <row r="2493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2493"/>
-    </row>
-    <row r="2494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2494"/>
-    </row>
-    <row r="2495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2495"/>
-    </row>
-    <row r="2496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2496"/>
-    </row>
-    <row r="2497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2497"/>
-    </row>
-    <row r="2498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2498"/>
-    </row>
-    <row r="2499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2499"/>
-    </row>
-    <row r="2500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2500"/>
-    </row>
-    <row r="2501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2501"/>
-    </row>
-    <row r="2502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2502"/>
-    </row>
-    <row r="2503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2503"/>
-    </row>
-    <row r="2504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2504"/>
-    </row>
-    <row r="2505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2505"/>
-    </row>
-    <row r="2506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2506"/>
-    </row>
-    <row r="2507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2507"/>
-    </row>
-    <row r="2508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2508"/>
-    </row>
-    <row r="2509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2509"/>
-    </row>
-    <row r="2510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2510"/>
-    </row>
-    <row r="2511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2511"/>
-    </row>
-    <row r="2512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2512"/>
-    </row>
-    <row r="2513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2513"/>
-    </row>
-    <row r="2514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2514"/>
-    </row>
-    <row r="2515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2515"/>
-    </row>
-    <row r="2516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2516"/>
-    </row>
-    <row r="2517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2517"/>
-    </row>
-    <row r="2518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2518"/>
-    </row>
-    <row r="2519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2519"/>
-    </row>
-    <row r="2520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2520"/>
-    </row>
-    <row r="2521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2521"/>
-    </row>
-    <row r="2522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2522"/>
-    </row>
-    <row r="2523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2523"/>
-    </row>
-    <row r="2524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2524"/>
-    </row>
-    <row r="2525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2525"/>
-    </row>
-    <row r="2526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2526"/>
-    </row>
-    <row r="2527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2527"/>
-    </row>
-    <row r="2528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2528"/>
-    </row>
-    <row r="2529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2529"/>
-    </row>
-    <row r="2530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2530"/>
-    </row>
-    <row r="2531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2531"/>
-    </row>
-    <row r="2532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2532"/>
-    </row>
-    <row r="2533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2533"/>
-    </row>
-    <row r="2534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2534"/>
-    </row>
-    <row r="2535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2535"/>
-    </row>
-    <row r="2536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2536"/>
-    </row>
-    <row r="2537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2537"/>
-    </row>
-    <row r="2538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2538"/>
-    </row>
-    <row r="2539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2539"/>
-    </row>
-    <row r="2540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2540"/>
-    </row>
-    <row r="2541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2541"/>
-    </row>
-    <row r="2542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2542"/>
-    </row>
-    <row r="2543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2543"/>
-    </row>
-    <row r="2544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2544"/>
-    </row>
-    <row r="2545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2545"/>
-    </row>
-    <row r="2546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2546"/>
-    </row>
-    <row r="2547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2547"/>
-    </row>
-    <row r="2548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2548"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
